--- a/success.xlsx
+++ b/success.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peng.li/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211CA151-D93C-EB42-9D77-1A6D1E870DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABBA6F5-E363-0E45-A977-6945463C50FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>累计顺延时间</t>
   </si>
@@ -59,9 +59,6 @@
     <t>LB144881518174965</t>
   </si>
   <si>
-    <t>LB1WG3E1XN8174965</t>
-  </si>
-  <si>
     <t>2024-11-05 13:51</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -92,6 +89,15 @@
   </si>
   <si>
     <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>经销商索赔代码-经销商索赔单号</t>
+  </si>
+  <si>
+    <t>LB144870518080110</t>
+  </si>
+  <si>
+    <t>99956-1000055,99956-3001232</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -401,9 +407,10 @@
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="34.1640625" customWidth="1"/>
     <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -437,31 +444,34 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
-        <v>3001234</v>
+        <v>1000054</v>
       </c>
       <c r="F2" s="3">
         <v>99956</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -470,33 +480,36 @@
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3">
-        <v>3001233</v>
+        <v>1000055</v>
       </c>
       <c r="F3" s="3">
         <v>99956</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -505,21 +518,22 @@
         <v>2</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <v>3001232</v>
@@ -528,10 +542,10 @@
         <v>99956</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -540,8 +554,9 @@
         <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
